--- a/3/oo.xlsx
+++ b/3/oo.xlsx
@@ -86,43 +86,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB50000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>001</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="str">
+        <v>002</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="str">
+        <v>003</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>2014-01-01</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="str">
+        <v>12:00aM</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="str">
+        <v>12.00Pm</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>